--- a/Data/20241016_Orthogonal_BARD1_FunctionalAssays.xlsx
+++ b/Data/20241016_Orthogonal_BARD1_FunctionalAssays.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9572A090-FB64-8D42-8877-4DE799EA2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D9BCE-F1FF-B044-B218-3E83E53D4B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="142">
   <si>
     <t>Adamovich2019_HDR</t>
   </si>
@@ -399,16 +399,74 @@
   <si>
     <t>Abnormal </t>
   </si>
+  <si>
+    <t>Becker2021_PARPiSensitivity</t>
+  </si>
+  <si>
+    <t>K619A</t>
+  </si>
+  <si>
+    <t>D673N</t>
+  </si>
+  <si>
+    <t>D673A</t>
+  </si>
+  <si>
+    <t>R705Q</t>
+  </si>
+  <si>
+    <t>K708R</t>
+  </si>
+  <si>
+    <t>K708A</t>
+  </si>
+  <si>
+    <t>D710N</t>
+  </si>
+  <si>
+    <t>D710A</t>
+  </si>
+  <si>
+    <t>D712N</t>
+  </si>
+  <si>
+    <t>D712A</t>
+  </si>
+  <si>
+    <t>Q715R</t>
+  </si>
+  <si>
+    <t>Q715A</t>
+  </si>
+  <si>
+    <t>Y722F</t>
+  </si>
+  <si>
+    <t>Y722A</t>
+  </si>
+  <si>
+    <t>H723Y</t>
+  </si>
+  <si>
+    <t>H723A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,16 +524,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:AA1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -736,7 +795,9 @@
       <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5522,7 +5583,9 @@
       <c r="AA140" s="2"/>
     </row>
     <row r="141" spans="1:27" ht="16">
-      <c r="A141" s="2"/>
+      <c r="A141" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5530,7 +5593,9 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
+      <c r="I141" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -5551,7 +5616,9 @@
       <c r="AA141" s="2"/>
     </row>
     <row r="142" spans="1:27" ht="16">
-      <c r="A142" s="2"/>
+      <c r="A142" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5559,7 +5626,9 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
+      <c r="I142" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -5580,7 +5649,9 @@
       <c r="AA142" s="2"/>
     </row>
     <row r="143" spans="1:27" ht="16">
-      <c r="A143" s="2"/>
+      <c r="A143" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5588,7 +5659,9 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+      <c r="I143" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -5609,7 +5682,9 @@
       <c r="AA143" s="2"/>
     </row>
     <row r="144" spans="1:27" ht="16">
-      <c r="A144" s="2"/>
+      <c r="A144" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5617,7 +5692,9 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
+      <c r="I144" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -5638,7 +5715,9 @@
       <c r="AA144" s="2"/>
     </row>
     <row r="145" spans="1:27" ht="16">
-      <c r="A145" s="2"/>
+      <c r="A145" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5646,7 +5725,9 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+      <c r="I145" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -5667,7 +5748,9 @@
       <c r="AA145" s="2"/>
     </row>
     <row r="146" spans="1:27" ht="16">
-      <c r="A146" s="2"/>
+      <c r="A146" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5675,7 +5758,9 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -5696,7 +5781,9 @@
       <c r="AA146" s="2"/>
     </row>
     <row r="147" spans="1:27" ht="16">
-      <c r="A147" s="2"/>
+      <c r="A147" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5704,7 +5791,9 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
+      <c r="I147" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -5725,7 +5814,9 @@
       <c r="AA147" s="2"/>
     </row>
     <row r="148" spans="1:27" ht="16">
-      <c r="A148" s="2"/>
+      <c r="A148" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5733,7 +5824,9 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="I148" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -5754,7 +5847,9 @@
       <c r="AA148" s="2"/>
     </row>
     <row r="149" spans="1:27" ht="16">
-      <c r="A149" s="2"/>
+      <c r="A149" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5762,7 +5857,9 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
+      <c r="I149" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -5783,7 +5880,9 @@
       <c r="AA149" s="2"/>
     </row>
     <row r="150" spans="1:27" ht="16">
-      <c r="A150" s="2"/>
+      <c r="A150" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5791,7 +5890,9 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="I150" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -5812,7 +5913,9 @@
       <c r="AA150" s="2"/>
     </row>
     <row r="151" spans="1:27" ht="16">
-      <c r="A151" s="2"/>
+      <c r="A151" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5820,7 +5923,9 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="I151" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -5841,7 +5946,9 @@
       <c r="AA151" s="2"/>
     </row>
     <row r="152" spans="1:27" ht="16">
-      <c r="A152" s="2"/>
+      <c r="A152" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5849,7 +5956,9 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="I152" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
@@ -5870,7 +5979,9 @@
       <c r="AA152" s="2"/>
     </row>
     <row r="153" spans="1:27" ht="16">
-      <c r="A153" s="2"/>
+      <c r="A153" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5878,7 +5989,9 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
+      <c r="I153" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -5899,7 +6012,9 @@
       <c r="AA153" s="2"/>
     </row>
     <row r="154" spans="1:27" ht="16">
-      <c r="A154" s="2"/>
+      <c r="A154" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5907,7 +6022,9 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="I154" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -5928,7 +6045,9 @@
       <c r="AA154" s="2"/>
     </row>
     <row r="155" spans="1:27" ht="16">
-      <c r="A155" s="2"/>
+      <c r="A155" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5936,7 +6055,9 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="I155" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -5957,7 +6078,9 @@
       <c r="AA155" s="2"/>
     </row>
     <row r="156" spans="1:27" ht="16">
-      <c r="A156" s="2"/>
+      <c r="A156" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5965,7 +6088,9 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
+      <c r="I156" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -5986,7 +6111,9 @@
       <c r="AA156" s="2"/>
     </row>
     <row r="157" spans="1:27" ht="16">
-      <c r="A157" s="2"/>
+      <c r="A157" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5994,7 +6121,9 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="I157" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
